--- a/Q2D.xlsx
+++ b/Q2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TEG-NAS\TEG_Home\H_drive_copy\My Papers\PBI Optimization 2025\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D78E22E-020F-4B76-A0B0-E2E3845EA96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769FF11-6A24-4DD8-8FED-47C5204B99A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="195" windowWidth="42210" windowHeight="30690" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="45315" windowHeight="30690" activeTab="1" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="M-optim" sheetId="1" r:id="rId1"/>
@@ -1403,7 +1403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1470,8 +1470,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5305,7 +5303,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                  <a:rPr lang="en-AU" sz="2000" b="0" i="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5479,8 +5477,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.14062020824641985"/>
-              <c:y val="2.5261277704328563E-2"/>
+              <c:x val="0.1040069315371366"/>
+              <c:y val="2.7242456505715384E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5512,7 +5510,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6583,7 +6581,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8474,8 +8472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6D1821-5B0F-46CD-BC90-FC2B36DE3E9A}">
   <dimension ref="A1:Z218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10856,7 +10854,7 @@
       <c r="A63" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="34">
+      <c r="B63" s="2">
         <v>2.9155000000000001E-5</v>
       </c>
       <c r="C63" s="2">
@@ -10896,7 +10894,7 @@
       <c r="A64" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="35">
+      <c r="B64">
         <f>EXP(-$B$20*B63)</f>
         <v>8.1485515374224562E-2</v>
       </c>
@@ -10968,9 +10966,10 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="34" t="s">
         <v>67</v>
       </c>
+      <c r="B66" s="13"/>
       <c r="C66" s="2">
         <f t="shared" si="4"/>
         <v>6600000</v>
@@ -15653,8 +15652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DFC89E-2645-414F-9586-595B43459676}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17811,10 +17810,10 @@
       <c r="AC30" s="26"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="16"/>
       <c r="D31" s="22">
         <v>38</v>
